--- a/doc/phrase.xlsx
+++ b/doc/phrase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="403">
   <si>
     <t>片語</t>
   </si>
@@ -1211,6 +1211,21 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave work</t>
+  </si>
+  <si>
+    <t>下班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I usually leave work at six o’clock.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我通常六點下班。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1262,11 +1277,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1562,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3277,6 +3295,38 @@
         <v>397</v>
       </c>
     </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C101" t="s">
+        <v>400</v>
+      </c>
+      <c r="D101" t="s">
+        <v>401</v>
+      </c>
+      <c r="E101" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="B106" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
